--- a/outcome/appendix/data/forecast/HBV.xlsx
+++ b/outcome/appendix/data/forecast/HBV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>116335.095052732</v>
+        <v>116473.871876791</v>
       </c>
       <c r="C2" t="n">
-        <v>108910.68430183</v>
+        <v>109030.208725007</v>
       </c>
       <c r="D2" t="n">
-        <v>104895.434238175</v>
+        <v>105173.762288524</v>
       </c>
       <c r="E2" t="n">
-        <v>123345.157084608</v>
+        <v>123871.104659245</v>
       </c>
       <c r="F2" t="n">
-        <v>126402.532798185</v>
+        <v>126964.080580976</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>25309.0950527325</v>
+        <v>25447.8718767909</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>104659.977343653</v>
+        <v>104718.629510458</v>
       </c>
       <c r="C3" t="n">
-        <v>96850.4738913618</v>
+        <v>97416.2087788204</v>
       </c>
       <c r="D3" t="n">
-        <v>92999.5082700693</v>
+        <v>93646.1146962704</v>
       </c>
       <c r="E3" t="n">
-        <v>111747.981824945</v>
+        <v>112671.965014889</v>
       </c>
       <c r="F3" t="n">
-        <v>115988.66777178</v>
+        <v>116120.424628535</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>53153.9773436532</v>
+        <v>53212.6295104583</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>122207.002871962</v>
+        <v>122166.354597094</v>
       </c>
       <c r="C4" t="n">
-        <v>114017.364944471</v>
+        <v>114854.187439735</v>
       </c>
       <c r="D4" t="n">
-        <v>109661.462800217</v>
+        <v>109785.994456865</v>
       </c>
       <c r="E4" t="n">
-        <v>129732.763987846</v>
+        <v>130170.239973851</v>
       </c>
       <c r="F4" t="n">
-        <v>134481.937480838</v>
+        <v>134728.891099654</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>34057.0028719621</v>
+        <v>34016.3545970944</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>112803.081995635</v>
+        <v>112829.988640547</v>
       </c>
       <c r="C5" t="n">
-        <v>103865.25996369</v>
+        <v>103966.088613855</v>
       </c>
       <c r="D5" t="n">
-        <v>100239.027274207</v>
+        <v>100085.313960875</v>
       </c>
       <c r="E5" t="n">
-        <v>121809.652318633</v>
+        <v>121483.524365405</v>
       </c>
       <c r="F5" t="n">
-        <v>126603.90762253</v>
+        <v>126864.551971089</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>11541.0819956347</v>
+        <v>11567.988640547</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>114805.812330522</v>
+        <v>114127.146448411</v>
       </c>
       <c r="C6" t="n">
-        <v>105213.75993154</v>
+        <v>105352.869041968</v>
       </c>
       <c r="D6" t="n">
-        <v>99798.9185520798</v>
+        <v>99998.5323740846</v>
       </c>
       <c r="E6" t="n">
-        <v>123852.104222101</v>
+        <v>123046.746423564</v>
       </c>
       <c r="F6" t="n">
-        <v>128666.33392016</v>
+        <v>127153.317076561</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>17154.8123305219</v>
+        <v>16476.1464484107</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108572.423298872</v>
+        <v>108827.408187655</v>
       </c>
       <c r="C7" t="n">
-        <v>99118.3896819346</v>
+        <v>99946.5877053618</v>
       </c>
       <c r="D7" t="n">
-        <v>92295.6305515062</v>
+        <v>94284.1398144522</v>
       </c>
       <c r="E7" t="n">
-        <v>117593.165725187</v>
+        <v>117806.419450774</v>
       </c>
       <c r="F7" t="n">
-        <v>123345.967339678</v>
+        <v>121455.02833357</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>9253.42329887241</v>
+        <v>9508.40818765512</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>112831.425000752</v>
+        <v>113045.262299311</v>
       </c>
       <c r="C8" t="n">
-        <v>103254.611851492</v>
+        <v>103672.882124744</v>
       </c>
       <c r="D8" t="n">
-        <v>98381.9661123642</v>
+        <v>98542.1939913047</v>
       </c>
       <c r="E8" t="n">
-        <v>122691.537073293</v>
+        <v>123124.077652863</v>
       </c>
       <c r="F8" t="n">
-        <v>128345.522427666</v>
+        <v>128383.348295717</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>10527.425000752</v>
+        <v>10741.2622993114</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>112215.944821771</v>
+        <v>111403.409498183</v>
       </c>
       <c r="C9" t="n">
-        <v>100777.530396196</v>
+        <v>101445.653771749</v>
       </c>
       <c r="D9" t="n">
-        <v>95380.3159225411</v>
+        <v>96657.2421433898</v>
       </c>
       <c r="E9" t="n">
-        <v>122861.378274465</v>
+        <v>121250.118147478</v>
       </c>
       <c r="F9" t="n">
-        <v>126830.72688254</v>
+        <v>125936.834876865</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>106135</v>
       </c>
       <c r="I9" t="n">
-        <v>6080.944821771</v>
+        <v>5268.40949818272</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>102310.310110951</v>
+        <v>102396.378537706</v>
       </c>
       <c r="C10" t="n">
-        <v>90208.6178816962</v>
+        <v>91831.5885866883</v>
       </c>
       <c r="D10" t="n">
-        <v>85003.5746228307</v>
+        <v>85902.4954708988</v>
       </c>
       <c r="E10" t="n">
-        <v>113605.760595362</v>
+        <v>113382.064069446</v>
       </c>
       <c r="F10" t="n">
-        <v>119189.146347194</v>
+        <v>118918.134415095</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-3066.68988904908</v>
+        <v>-2980.621462294</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>104934.92439683</v>
+        <v>104820.264003129</v>
       </c>
       <c r="C11" t="n">
-        <v>93642.2289281328</v>
+        <v>93772.3345802074</v>
       </c>
       <c r="D11" t="n">
-        <v>86146.1337872758</v>
+        <v>87171.0484189142</v>
       </c>
       <c r="E11" t="n">
-        <v>116457.169713228</v>
+        <v>114196.567208848</v>
       </c>
       <c r="F11" t="n">
-        <v>120965.91539864</v>
+        <v>123559.852232696</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>9301.92439682953</v>
+        <v>9187.26400312863</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>104574.838003538</v>
+        <v>104256.391683069</v>
       </c>
       <c r="C12" t="n">
-        <v>92303.1668011385</v>
+        <v>92757.3634606414</v>
       </c>
       <c r="D12" t="n">
-        <v>86397.8930157347</v>
+        <v>86693.0165751289</v>
       </c>
       <c r="E12" t="n">
-        <v>115247.890917116</v>
+        <v>115346.961769658</v>
       </c>
       <c r="F12" t="n">
-        <v>122575.484338177</v>
+        <v>121896.756892609</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>4013.83800353768</v>
+        <v>3695.39168306944</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101719.150856012</v>
+        <v>101765.673044874</v>
       </c>
       <c r="C13" t="n">
-        <v>89694.4596490939</v>
+        <v>89505.9938073417</v>
       </c>
       <c r="D13" t="n">
-        <v>83401.3547078109</v>
+        <v>83285.417383262</v>
       </c>
       <c r="E13" t="n">
-        <v>114059.118236176</v>
+        <v>113362.998937621</v>
       </c>
       <c r="F13" t="n">
-        <v>120032.217004219</v>
+        <v>120471.891264355</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1510.1508560123</v>
+        <v>1556.67304487391</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>118895.63043212</v>
+        <v>118453.642608347</v>
       </c>
       <c r="C14" t="n">
-        <v>105615.005705789</v>
+        <v>106016.584150019</v>
       </c>
       <c r="D14" t="n">
-        <v>98664.2724155071</v>
+        <v>99513.2820638417</v>
       </c>
       <c r="E14" t="n">
-        <v>130790.547274098</v>
+        <v>129635.46763048</v>
       </c>
       <c r="F14" t="n">
-        <v>138096.76280166</v>
+        <v>136287.831993874</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>20638.6304321198</v>
+        <v>20196.642608347</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>106933.968755232</v>
+        <v>106413.554867846</v>
       </c>
       <c r="C15" t="n">
-        <v>93756.4822674925</v>
+        <v>95107.2866266785</v>
       </c>
       <c r="D15" t="n">
-        <v>86713.2813645406</v>
+        <v>90401.7876486272</v>
       </c>
       <c r="E15" t="n">
-        <v>119357.13994644</v>
+        <v>119185.782892121</v>
       </c>
       <c r="F15" t="n">
-        <v>127436.12297003</v>
+        <v>126533.069581964</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>23919.968755232</v>
+        <v>23399.5548678463</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>124843.966698683</v>
+        <v>124440.146056772</v>
       </c>
       <c r="C16" t="n">
-        <v>111478.22272118</v>
+        <v>111226.454382988</v>
       </c>
       <c r="D16" t="n">
-        <v>103076.01748106</v>
+        <v>105431.553252994</v>
       </c>
       <c r="E16" t="n">
-        <v>137298.66951293</v>
+        <v>136946.356100441</v>
       </c>
       <c r="F16" t="n">
-        <v>144163.001841339</v>
+        <v>143107.771842085</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>5420.96669868279</v>
+        <v>5017.14605677246</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>116253.936907759</v>
+        <v>115499.057352402</v>
       </c>
       <c r="C17" t="n">
-        <v>103278.417957599</v>
+        <v>102338.338005364</v>
       </c>
       <c r="D17" t="n">
-        <v>95784.565599234</v>
+        <v>97040.6782411646</v>
       </c>
       <c r="E17" t="n">
-        <v>130076.135307337</v>
+        <v>129347.984322046</v>
       </c>
       <c r="F17" t="n">
-        <v>137067.883982834</v>
+        <v>134150.604992839</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>5868.93690775921</v>
+        <v>5114.0573524018</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>116706.422287795</v>
+        <v>116564.781517856</v>
       </c>
       <c r="C18" t="n">
-        <v>103213.606720082</v>
+        <v>102597.319915317</v>
       </c>
       <c r="D18" t="n">
-        <v>96122.3541363736</v>
+        <v>95184.291525414</v>
       </c>
       <c r="E18" t="n">
-        <v>130289.90733634</v>
+        <v>130280.722198755</v>
       </c>
       <c r="F18" t="n">
-        <v>138510.181145192</v>
+        <v>137673.49051211</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>11313.4222877951</v>
+        <v>11171.7815178561</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>112010.663491172</v>
+        <v>111381.946196823</v>
       </c>
       <c r="C19" t="n">
-        <v>99255.9912658986</v>
+        <v>96098.4669705104</v>
       </c>
       <c r="D19" t="n">
-        <v>89819.645595456</v>
+        <v>90698.4724197077</v>
       </c>
       <c r="E19" t="n">
-        <v>126853.887831209</v>
+        <v>125227.493257287</v>
       </c>
       <c r="F19" t="n">
-        <v>133674.431010466</v>
+        <v>133244.937281174</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>10377.6634911715</v>
+        <v>9748.94619682286</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>116025.481273649</v>
+        <v>114963.097883705</v>
       </c>
       <c r="C20" t="n">
-        <v>101762.488345052</v>
+        <v>99491.6084294341</v>
       </c>
       <c r="D20" t="n">
-        <v>93461.6856491873</v>
+        <v>91619.4448570653</v>
       </c>
       <c r="E20" t="n">
-        <v>130267.940087246</v>
+        <v>130366.903904522</v>
       </c>
       <c r="F20" t="n">
-        <v>139337.3507397</v>
+        <v>138075.799716068</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>3738.48127364936</v>
+        <v>2676.09788370541</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>114913.101217332</v>
+        <v>114393.294324692</v>
       </c>
       <c r="C21" t="n">
-        <v>100042.776186186</v>
+        <v>99829.7930818192</v>
       </c>
       <c r="D21" t="n">
-        <v>94344.7550467613</v>
+        <v>94901.350461847</v>
       </c>
       <c r="E21" t="n">
-        <v>128331.617522515</v>
+        <v>129686.31549302</v>
       </c>
       <c r="F21" t="n">
-        <v>137582.318385343</v>
+        <v>138006.961208726</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>12852.1012173316</v>
+        <v>12332.2943246917</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>105477.51553761</v>
+        <v>105188.413785516</v>
       </c>
       <c r="C22" t="n">
-        <v>90982.5358082543</v>
+        <v>89156.8576773166</v>
       </c>
       <c r="D22" t="n">
-        <v>83407.7815380952</v>
+        <v>81539.5799712272</v>
       </c>
       <c r="E22" t="n">
-        <v>121500.713663889</v>
+        <v>121019.779483947</v>
       </c>
       <c r="F22" t="n">
-        <v>130268.143657668</v>
+        <v>129036.443888198</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>3776.51553761013</v>
+        <v>3487.41378551627</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>107419.52777255</v>
+        <v>107708.479112222</v>
       </c>
       <c r="C23" t="n">
-        <v>92691.428545566</v>
+        <v>92701.1247551019</v>
       </c>
       <c r="D23" t="n">
-        <v>86208.2039604133</v>
+        <v>82029.2492604141</v>
       </c>
       <c r="E23" t="n">
-        <v>123258.856241678</v>
+        <v>123895.085127524</v>
       </c>
       <c r="F23" t="n">
-        <v>130566.901634802</v>
+        <v>131558.173998043</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>11477.52777255</v>
+        <v>11766.4791122215</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>107002.306149781</v>
+        <v>107071.291203015</v>
       </c>
       <c r="C24" t="n">
-        <v>91209.0791969718</v>
+        <v>91079.5718025939</v>
       </c>
       <c r="D24" t="n">
-        <v>82949.9867932478</v>
+        <v>83160.7647275824</v>
       </c>
       <c r="E24" t="n">
-        <v>123356.068246805</v>
+        <v>122417.850004726</v>
       </c>
       <c r="F24" t="n">
-        <v>130657.918024058</v>
+        <v>130588.045579304</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>4404.30614978133</v>
+        <v>4473.29120301481</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>104463.711897701</v>
+        <v>104052.76134531</v>
       </c>
       <c r="C25" t="n">
-        <v>88257.3029109748</v>
+        <v>88181.9828967717</v>
       </c>
       <c r="D25" t="n">
-        <v>79692.0210464913</v>
+        <v>79451.6719162365</v>
       </c>
       <c r="E25" t="n">
-        <v>121591.705577809</v>
+        <v>119103.94244957</v>
       </c>
       <c r="F25" t="n">
-        <v>131425.947758401</v>
+        <v>128988.012946249</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-3693.28810229881</v>
+        <v>-4104.23865468965</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>121428.583853494</v>
+        <v>121680.429065684</v>
       </c>
       <c r="C26" t="n">
-        <v>103864.457663023</v>
+        <v>105687.559195978</v>
       </c>
       <c r="D26" t="n">
-        <v>93011.1385966259</v>
+        <v>98364.0296017987</v>
       </c>
       <c r="E26" t="n">
-        <v>138997.412010309</v>
+        <v>137074.610036605</v>
       </c>
       <c r="F26" t="n">
-        <v>148360.062316438</v>
+        <v>147202.509355452</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>11897.5838534942</v>
+        <v>12149.4290656843</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>109188.46953176</v>
+        <v>109092.833169256</v>
       </c>
       <c r="C27" t="n">
-        <v>91842.5905743654</v>
+        <v>92627.0698990498</v>
       </c>
       <c r="D27" t="n">
-        <v>83998.3501375608</v>
+        <v>84695.0386982211</v>
       </c>
       <c r="E27" t="n">
-        <v>125679.648287548</v>
+        <v>125786.568589146</v>
       </c>
       <c r="F27" t="n">
-        <v>134120.756951754</v>
+        <v>132883.701207796</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>12401.4695317601</v>
+        <v>12305.8331692557</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>126937.801927164</v>
+        <v>126853.807097693</v>
       </c>
       <c r="C28" t="n">
-        <v>108943.360367057</v>
+        <v>109088.385382391</v>
       </c>
       <c r="D28" t="n">
-        <v>97418.2820534593</v>
+        <v>100960.358467701</v>
       </c>
       <c r="E28" t="n">
-        <v>145323.779852763</v>
+        <v>144109.266940795</v>
       </c>
       <c r="F28" t="n">
-        <v>155411.542297841</v>
+        <v>152255.270095596</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>12934.8019271639</v>
+        <v>12850.8070976929</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>118254.55317893</v>
+        <v>118368.188307353</v>
       </c>
       <c r="C29" t="n">
-        <v>99399.0600547778</v>
+        <v>100458.050573005</v>
       </c>
       <c r="D29" t="n">
-        <v>91195.7376318718</v>
+        <v>91318.5115220534</v>
       </c>
       <c r="E29" t="n">
-        <v>137342.874029281</v>
+        <v>136247.624986437</v>
       </c>
       <c r="F29" t="n">
-        <v>147777.934744872</v>
+        <v>147471.909256825</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>22321.5531789298</v>
+        <v>22435.1883073534</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>119546.517816246</v>
+        <v>119637.414084486</v>
       </c>
       <c r="C30" t="n">
-        <v>102047.206955261</v>
+        <v>101941.145479175</v>
       </c>
       <c r="D30" t="n">
-        <v>91162.6601846972</v>
+        <v>92830.8505147479</v>
       </c>
       <c r="E30" t="n">
-        <v>137617.046766291</v>
+        <v>137198.552386949</v>
       </c>
       <c r="F30" t="n">
-        <v>146874.167295852</v>
+        <v>147848.319691195</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>16634.5178162461</v>
+        <v>16725.4140844863</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>113270.150240452</v>
+        <v>113858.238059371</v>
       </c>
       <c r="C31" t="n">
-        <v>94757.1505738778</v>
+        <v>95512.4776526372</v>
       </c>
       <c r="D31" t="n">
-        <v>83818.1929860753</v>
+        <v>85296.9546050051</v>
       </c>
       <c r="E31" t="n">
-        <v>133970.690061897</v>
+        <v>132561.19622166</v>
       </c>
       <c r="F31" t="n">
-        <v>143771.920173173</v>
+        <v>141933.780831529</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>6424.15024045245</v>
+        <v>7012.23805937059</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>118178.9839868</v>
+        <v>118354.434068997</v>
       </c>
       <c r="C32" t="n">
-        <v>101008.167817237</v>
+        <v>100200.229070678</v>
       </c>
       <c r="D32" t="n">
-        <v>89115.8001570117</v>
+        <v>92405.8972015443</v>
       </c>
       <c r="E32" t="n">
-        <v>138039.949032472</v>
+        <v>135812.825547334</v>
       </c>
       <c r="F32" t="n">
-        <v>146051.182945561</v>
+        <v>149692.930472644</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>5530.98398679982</v>
+        <v>5706.43406899655</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>117629.520892296</v>
+        <v>117737.929652209</v>
       </c>
       <c r="C33" t="n">
-        <v>99084.9747910095</v>
+        <v>99987.2233681238</v>
       </c>
       <c r="D33" t="n">
-        <v>89695.7794853214</v>
+        <v>90270.5938551342</v>
       </c>
       <c r="E33" t="n">
-        <v>138038.884730893</v>
+        <v>136400.852405078</v>
       </c>
       <c r="F33" t="n">
-        <v>145938.258399526</v>
+        <v>147684.542617497</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>2254.52089229632</v>
+        <v>2362.92965220944</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>107587.843959302</v>
+        <v>107756.076607947</v>
       </c>
       <c r="C34" t="n">
-        <v>89501.0216297075</v>
+        <v>89101.1567185516</v>
       </c>
       <c r="D34" t="n">
-        <v>78737.8158549408</v>
+        <v>80503.4812676059</v>
       </c>
       <c r="E34" t="n">
-        <v>126404.676392311</v>
+        <v>125861.147274794</v>
       </c>
       <c r="F34" t="n">
-        <v>136209.841349582</v>
+        <v>141037.900707482</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>6504.84395930248</v>
+        <v>6673.07660794702</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>109640.253757992</v>
+        <v>109872.532695084</v>
       </c>
       <c r="C35" t="n">
-        <v>89681.3278126584</v>
+        <v>90586.4866938394</v>
       </c>
       <c r="D35" t="n">
-        <v>77214.8493786634</v>
+        <v>82670.5919493933</v>
       </c>
       <c r="E35" t="n">
-        <v>128632.163940862</v>
+        <v>128913.666243467</v>
       </c>
       <c r="F35" t="n">
-        <v>139129.009979214</v>
+        <v>143049.923011596</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>19625.2537579924</v>
+        <v>19857.5326950844</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>109313.221045131</v>
+        <v>109842.965939388</v>
       </c>
       <c r="C36" t="n">
-        <v>89138.1634341053</v>
+        <v>89984.0728541256</v>
       </c>
       <c r="D36" t="n">
-        <v>80484.0227507679</v>
+        <v>81551.2226422134</v>
       </c>
       <c r="E36" t="n">
-        <v>129936.324828355</v>
+        <v>128482.01944643</v>
       </c>
       <c r="F36" t="n">
-        <v>142265.698903475</v>
+        <v>144314.499313083</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>22942.2210451312</v>
+        <v>23471.9659393885</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>107122.629480203</v>
+        <v>106869.298865731</v>
       </c>
       <c r="C37" t="n">
-        <v>87148.1374343967</v>
+        <v>87733.5382534616</v>
       </c>
       <c r="D37" t="n">
-        <v>72493.8495597452</v>
+        <v>77796.7961512668</v>
       </c>
       <c r="E37" t="n">
-        <v>129101.24271027</v>
+        <v>127100.787560981</v>
       </c>
       <c r="F37" t="n">
-        <v>138080.22529729</v>
+        <v>141131.355222311</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>47624.6294802033</v>
+        <v>47371.2988657311</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>123905.041291196</v>
+        <v>124682.036415846</v>
       </c>
       <c r="C38" t="n">
-        <v>103618.668009029</v>
+        <v>104316.053853821</v>
       </c>
       <c r="D38" t="n">
-        <v>88649.6792766281</v>
+        <v>94891.0772666397</v>
       </c>
       <c r="E38" t="n">
-        <v>145145.381154607</v>
+        <v>145238.560740731</v>
       </c>
       <c r="F38" t="n">
-        <v>158378.240372513</v>
+        <v>158870.231030571</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>49115.0412911961</v>
+        <v>49892.0364158461</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>111492.768835714</v>
+        <v>112391.981068654</v>
       </c>
       <c r="C39" t="n">
-        <v>90267.93982707</v>
+        <v>90631.224547808</v>
       </c>
       <c r="D39" t="n">
-        <v>76934.2387265315</v>
+        <v>80828.659820766</v>
       </c>
       <c r="E39" t="n">
-        <v>132873.11791315</v>
+        <v>132614.436945682</v>
       </c>
       <c r="F39" t="n">
-        <v>145296.808002702</v>
+        <v>145151.004854928</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>116063</v>
       </c>
       <c r="I39" t="n">
-        <v>-4570.23116428625</v>
+        <v>-3671.01893134645</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>129532.770388808</v>
+        <v>129925.280059598</v>
       </c>
       <c r="C40" t="n">
-        <v>107063.752527237</v>
+        <v>106944.63433068</v>
       </c>
       <c r="D40" t="n">
-        <v>92123.0151067661</v>
+        <v>97500.6931840796</v>
       </c>
       <c r="E40" t="n">
-        <v>152615.909845036</v>
+        <v>151082.164988652</v>
       </c>
       <c r="F40" t="n">
-        <v>166352.709031957</v>
+        <v>166072.053042629</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>2600.77038880765</v>
+        <v>2993.28005959792</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>

--- a/outcome/appendix/data/forecast/HBV.xlsx
+++ b/outcome/appendix/data/forecast/HBV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>116473.871876791</v>
+        <v>116517.922383969</v>
       </c>
       <c r="C2" t="n">
-        <v>109030.208725007</v>
+        <v>110004.632807191</v>
       </c>
       <c r="D2" t="n">
-        <v>105173.762288524</v>
+        <v>105278.809926282</v>
       </c>
       <c r="E2" t="n">
-        <v>123871.104659245</v>
+        <v>122800.470429226</v>
       </c>
       <c r="F2" t="n">
-        <v>126964.080580976</v>
+        <v>127536.891674744</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>25447.8718767909</v>
+        <v>25491.922383969</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>104718.629510458</v>
+        <v>104437.994822439</v>
       </c>
       <c r="C3" t="n">
-        <v>97416.2087788204</v>
+        <v>96278.5161600111</v>
       </c>
       <c r="D3" t="n">
-        <v>93646.1146962704</v>
+        <v>93547.6506011239</v>
       </c>
       <c r="E3" t="n">
-        <v>112671.965014889</v>
+        <v>112140.494443916</v>
       </c>
       <c r="F3" t="n">
-        <v>116120.424628535</v>
+        <v>116880.379601197</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>53212.6295104583</v>
+        <v>52931.9948224386</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>122166.354597094</v>
+        <v>122174.826899615</v>
       </c>
       <c r="C4" t="n">
-        <v>114854.187439735</v>
+        <v>113886.885824982</v>
       </c>
       <c r="D4" t="n">
-        <v>109785.994456865</v>
+        <v>108935.03949411</v>
       </c>
       <c r="E4" t="n">
-        <v>130170.239973851</v>
+        <v>130574.398241157</v>
       </c>
       <c r="F4" t="n">
-        <v>134728.891099654</v>
+        <v>134128.973428007</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>34016.3545970944</v>
+        <v>34024.8268996148</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>112829.988640547</v>
+        <v>113402.595526591</v>
       </c>
       <c r="C5" t="n">
-        <v>103966.088613855</v>
+        <v>104390.310449866</v>
       </c>
       <c r="D5" t="n">
-        <v>100085.313960875</v>
+        <v>99299.1328560142</v>
       </c>
       <c r="E5" t="n">
-        <v>121483.524365405</v>
+        <v>122664.862699233</v>
       </c>
       <c r="F5" t="n">
-        <v>126864.551971089</v>
+        <v>127884.839941469</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>11567.988640547</v>
+        <v>12140.595526591</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>114127.146448411</v>
+        <v>114252.185678034</v>
       </c>
       <c r="C6" t="n">
-        <v>105352.869041968</v>
+        <v>105031.474649848</v>
       </c>
       <c r="D6" t="n">
-        <v>99998.5323740846</v>
+        <v>99084.5261137246</v>
       </c>
       <c r="E6" t="n">
-        <v>123046.746423564</v>
+        <v>124093.932260839</v>
       </c>
       <c r="F6" t="n">
-        <v>127153.317076561</v>
+        <v>127733.194799699</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>16476.1464484107</v>
+        <v>16601.1856780345</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108827.408187655</v>
+        <v>108657.168006744</v>
       </c>
       <c r="C7" t="n">
-        <v>99946.5877053618</v>
+        <v>98869.6325051056</v>
       </c>
       <c r="D7" t="n">
-        <v>94284.1398144522</v>
+        <v>91400.8650453368</v>
       </c>
       <c r="E7" t="n">
-        <v>117806.419450774</v>
+        <v>118500.951296799</v>
       </c>
       <c r="F7" t="n">
-        <v>121455.02833357</v>
+        <v>124025.929919462</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>9508.40818765512</v>
+        <v>9338.1680067436</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>113045.262299311</v>
+        <v>113403.061464913</v>
       </c>
       <c r="C8" t="n">
-        <v>103672.882124744</v>
+        <v>102433.687965371</v>
       </c>
       <c r="D8" t="n">
-        <v>98542.1939913047</v>
+        <v>96565.5749621571</v>
       </c>
       <c r="E8" t="n">
-        <v>123124.077652863</v>
+        <v>124349.780957903</v>
       </c>
       <c r="F8" t="n">
-        <v>128383.348295717</v>
+        <v>129521.912961548</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>10741.2622993114</v>
+        <v>11099.0614649125</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>111403.409498183</v>
+        <v>112265.109237762</v>
       </c>
       <c r="C9" t="n">
-        <v>101445.653771749</v>
+        <v>101499.481526003</v>
       </c>
       <c r="D9" t="n">
-        <v>96657.2421433898</v>
+        <v>96511.7435118166</v>
       </c>
       <c r="E9" t="n">
-        <v>121250.118147478</v>
+        <v>121655.323434861</v>
       </c>
       <c r="F9" t="n">
-        <v>125936.834876865</v>
+        <v>128735.327228062</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>106135</v>
       </c>
       <c r="I9" t="n">
-        <v>5268.40949818272</v>
+        <v>6130.10923776189</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>102396.378537706</v>
+        <v>102814.836112113</v>
       </c>
       <c r="C10" t="n">
-        <v>91831.5885866883</v>
+        <v>91681.6358077687</v>
       </c>
       <c r="D10" t="n">
-        <v>85902.4954708988</v>
+        <v>85894.8641909794</v>
       </c>
       <c r="E10" t="n">
-        <v>113382.064069446</v>
+        <v>113750.713544184</v>
       </c>
       <c r="F10" t="n">
-        <v>118918.134415095</v>
+        <v>121830.000422054</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-2980.621462294</v>
+        <v>-2562.16388788728</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>104820.264003129</v>
+        <v>104897.545176477</v>
       </c>
       <c r="C11" t="n">
-        <v>93772.3345802074</v>
+        <v>93228.6652201871</v>
       </c>
       <c r="D11" t="n">
-        <v>87171.0484189142</v>
+        <v>87925.3192486832</v>
       </c>
       <c r="E11" t="n">
-        <v>114196.567208848</v>
+        <v>116685.302257436</v>
       </c>
       <c r="F11" t="n">
-        <v>123559.852232696</v>
+        <v>122660.340410638</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>9187.26400312863</v>
+        <v>9264.5451764773</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>104256.391683069</v>
+        <v>103933.19571181</v>
       </c>
       <c r="C12" t="n">
-        <v>92757.3634606414</v>
+        <v>91838.0735550165</v>
       </c>
       <c r="D12" t="n">
-        <v>86693.0165751289</v>
+        <v>85286.774810596</v>
       </c>
       <c r="E12" t="n">
-        <v>115346.961769658</v>
+        <v>115361.638446316</v>
       </c>
       <c r="F12" t="n">
-        <v>121896.756892609</v>
+        <v>121922.292750715</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>3695.39168306944</v>
+        <v>3372.19571180965</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101765.673044874</v>
+        <v>102331.94757461</v>
       </c>
       <c r="C13" t="n">
-        <v>89505.9938073417</v>
+        <v>91902.6214547774</v>
       </c>
       <c r="D13" t="n">
-        <v>83285.417383262</v>
+        <v>84603.3400879307</v>
       </c>
       <c r="E13" t="n">
-        <v>113362.998937621</v>
+        <v>113421.813846519</v>
       </c>
       <c r="F13" t="n">
-        <v>120471.891264355</v>
+        <v>120642.580637696</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1556.67304487391</v>
+        <v>2122.94757461025</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>118453.642608347</v>
+        <v>119034.846298689</v>
       </c>
       <c r="C14" t="n">
-        <v>106016.584150019</v>
+        <v>106559.069453445</v>
       </c>
       <c r="D14" t="n">
-        <v>99513.2820638417</v>
+        <v>100346.645387023</v>
       </c>
       <c r="E14" t="n">
-        <v>129635.46763048</v>
+        <v>130978.590468533</v>
       </c>
       <c r="F14" t="n">
-        <v>136287.831993874</v>
+        <v>137806.875195059</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>20196.642608347</v>
+        <v>20777.8462986894</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>106413.554867846</v>
+        <v>107246.314817573</v>
       </c>
       <c r="C15" t="n">
-        <v>95107.2866266785</v>
+        <v>94023.0848018852</v>
       </c>
       <c r="D15" t="n">
-        <v>90401.7876486272</v>
+        <v>86503.0716210685</v>
       </c>
       <c r="E15" t="n">
-        <v>119185.782892121</v>
+        <v>120122.37095024</v>
       </c>
       <c r="F15" t="n">
-        <v>126533.069581964</v>
+        <v>128389.667309201</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>23399.5548678463</v>
+        <v>24232.314817573</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>124440.146056772</v>
+        <v>124429.433956082</v>
       </c>
       <c r="C16" t="n">
-        <v>111226.454382988</v>
+        <v>110871.929129745</v>
       </c>
       <c r="D16" t="n">
-        <v>105431.553252994</v>
+        <v>102898.763406695</v>
       </c>
       <c r="E16" t="n">
-        <v>136946.356100441</v>
+        <v>138330.743122849</v>
       </c>
       <c r="F16" t="n">
-        <v>143107.771842085</v>
+        <v>147594.41020111</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>5017.14605677246</v>
+        <v>5006.4339560824</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>115499.057352402</v>
+        <v>115811.952590499</v>
       </c>
       <c r="C17" t="n">
-        <v>102338.338005364</v>
+        <v>102432.132947943</v>
       </c>
       <c r="D17" t="n">
-        <v>97040.6782411646</v>
+        <v>92367.5016576852</v>
       </c>
       <c r="E17" t="n">
-        <v>129347.984322046</v>
+        <v>130038.767581816</v>
       </c>
       <c r="F17" t="n">
-        <v>134150.604992839</v>
+        <v>138083.924135735</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>5114.0573524018</v>
+        <v>5426.95259049856</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>116564.781517856</v>
+        <v>116695.303188314</v>
       </c>
       <c r="C18" t="n">
-        <v>102597.319915317</v>
+        <v>101256.644654606</v>
       </c>
       <c r="D18" t="n">
-        <v>95184.291525414</v>
+        <v>93979.1930382067</v>
       </c>
       <c r="E18" t="n">
-        <v>130280.722198755</v>
+        <v>132556.049197674</v>
       </c>
       <c r="F18" t="n">
-        <v>137673.49051211</v>
+        <v>140289.150989716</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>11171.7815178561</v>
+        <v>11302.3031883143</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>111381.946196823</v>
+        <v>110938.443229665</v>
       </c>
       <c r="C19" t="n">
-        <v>96098.4669705104</v>
+        <v>96705.7389551828</v>
       </c>
       <c r="D19" t="n">
-        <v>90698.4724197077</v>
+        <v>89042.5497578722</v>
       </c>
       <c r="E19" t="n">
-        <v>125227.493257287</v>
+        <v>125316.873826237</v>
       </c>
       <c r="F19" t="n">
-        <v>133244.937281174</v>
+        <v>133971.097012504</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>9748.94619682286</v>
+        <v>9305.44322966483</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>114963.097883705</v>
+        <v>114806.177993202</v>
       </c>
       <c r="C20" t="n">
-        <v>99491.6084294341</v>
+        <v>99816.7237268282</v>
       </c>
       <c r="D20" t="n">
-        <v>91619.4448570653</v>
+        <v>90717.4480979477</v>
       </c>
       <c r="E20" t="n">
-        <v>130366.903904522</v>
+        <v>129890.056611296</v>
       </c>
       <c r="F20" t="n">
-        <v>138075.799716068</v>
+        <v>138967.835746446</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>2676.09788370541</v>
+        <v>2519.17799320216</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>114393.294324692</v>
+        <v>114490.473334059</v>
       </c>
       <c r="C21" t="n">
-        <v>99829.7930818192</v>
+        <v>99694.8192163622</v>
       </c>
       <c r="D21" t="n">
-        <v>94901.350461847</v>
+        <v>91570.5626387698</v>
       </c>
       <c r="E21" t="n">
-        <v>129686.31549302</v>
+        <v>129717.248488351</v>
       </c>
       <c r="F21" t="n">
-        <v>138006.961208726</v>
+        <v>138548.9614322</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>12332.2943246917</v>
+        <v>12429.4733340588</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>105188.413785516</v>
+        <v>104461.365592062</v>
       </c>
       <c r="C22" t="n">
-        <v>89156.8576773166</v>
+        <v>88287.492292645</v>
       </c>
       <c r="D22" t="n">
-        <v>81539.5799712272</v>
+        <v>80413.9190704518</v>
       </c>
       <c r="E22" t="n">
-        <v>121019.779483947</v>
+        <v>120419.954298878</v>
       </c>
       <c r="F22" t="n">
-        <v>129036.443888198</v>
+        <v>127597.128745643</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>3487.41378551627</v>
+        <v>2760.36559206172</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>107708.479112222</v>
+        <v>106464.732982187</v>
       </c>
       <c r="C23" t="n">
-        <v>92701.1247551019</v>
+        <v>89531.5620664385</v>
       </c>
       <c r="D23" t="n">
-        <v>82029.2492604141</v>
+        <v>84216.706896932</v>
       </c>
       <c r="E23" t="n">
-        <v>123895.085127524</v>
+        <v>122443.371882343</v>
       </c>
       <c r="F23" t="n">
-        <v>131558.173998043</v>
+        <v>132390.920672389</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>11766.4791122215</v>
+        <v>10522.7329821873</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>107071.291203015</v>
+        <v>106015.598496062</v>
       </c>
       <c r="C24" t="n">
-        <v>91079.5718025939</v>
+        <v>88906.4297721069</v>
       </c>
       <c r="D24" t="n">
-        <v>83160.7647275824</v>
+        <v>81635.8993028043</v>
       </c>
       <c r="E24" t="n">
-        <v>122417.850004726</v>
+        <v>122110.434705478</v>
       </c>
       <c r="F24" t="n">
-        <v>130588.045579304</v>
+        <v>131940.097008359</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>4473.29120301481</v>
+        <v>3417.59849606242</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>104052.76134531</v>
+        <v>103989.251633581</v>
       </c>
       <c r="C25" t="n">
-        <v>88181.9828967717</v>
+        <v>87572.5845292496</v>
       </c>
       <c r="D25" t="n">
-        <v>79451.6719162365</v>
+        <v>79448.7056098531</v>
       </c>
       <c r="E25" t="n">
-        <v>119103.94244957</v>
+        <v>121231.390634313</v>
       </c>
       <c r="F25" t="n">
-        <v>128988.012946249</v>
+        <v>130600.680519856</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-4104.23865468965</v>
+        <v>-4167.74836641937</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>121680.429065684</v>
+        <v>120675.198475631</v>
       </c>
       <c r="C26" t="n">
-        <v>105687.559195978</v>
+        <v>104159.652258059</v>
       </c>
       <c r="D26" t="n">
-        <v>98364.0296017987</v>
+        <v>91508.0398961741</v>
       </c>
       <c r="E26" t="n">
-        <v>137074.610036605</v>
+        <v>138077.908772882</v>
       </c>
       <c r="F26" t="n">
-        <v>147202.509355452</v>
+        <v>147409.545504439</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>12149.4290656843</v>
+        <v>11144.1984756312</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>109092.833169256</v>
+        <v>108720.687534267</v>
       </c>
       <c r="C27" t="n">
-        <v>92627.0698990498</v>
+        <v>90812.0075369643</v>
       </c>
       <c r="D27" t="n">
-        <v>84695.0386982211</v>
+        <v>81838.8764518377</v>
       </c>
       <c r="E27" t="n">
-        <v>125786.568589146</v>
+        <v>126314.484275859</v>
       </c>
       <c r="F27" t="n">
-        <v>132883.701207796</v>
+        <v>135773.110669827</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>12305.8331692557</v>
+        <v>11933.6875342668</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>126853.807097693</v>
+        <v>126256.924027963</v>
       </c>
       <c r="C28" t="n">
-        <v>109088.385382391</v>
+        <v>107408.833800694</v>
       </c>
       <c r="D28" t="n">
-        <v>100960.358467701</v>
+        <v>97540.337515378</v>
       </c>
       <c r="E28" t="n">
-        <v>144109.266940795</v>
+        <v>144863.437393887</v>
       </c>
       <c r="F28" t="n">
-        <v>152255.270095596</v>
+        <v>157628.12191627</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>12850.8070976929</v>
+        <v>12253.9240279633</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>118368.188307353</v>
+        <v>117528.885253741</v>
       </c>
       <c r="C29" t="n">
-        <v>100458.050573005</v>
+        <v>98669.3426584847</v>
       </c>
       <c r="D29" t="n">
-        <v>91318.5115220534</v>
+        <v>88659.1532879921</v>
       </c>
       <c r="E29" t="n">
-        <v>136247.624986437</v>
+        <v>135813.868149913</v>
       </c>
       <c r="F29" t="n">
-        <v>147471.909256825</v>
+        <v>147426.915802913</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>22435.1883073534</v>
+        <v>21595.8852537408</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>119637.414084486</v>
+        <v>118638.651284439</v>
       </c>
       <c r="C30" t="n">
-        <v>101941.145479175</v>
+        <v>101434.03291777</v>
       </c>
       <c r="D30" t="n">
-        <v>92830.8505147479</v>
+        <v>89672.1776713379</v>
       </c>
       <c r="E30" t="n">
-        <v>137198.552386949</v>
+        <v>137025.922728838</v>
       </c>
       <c r="F30" t="n">
-        <v>147848.319691195</v>
+        <v>147169.164753593</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>16725.4140844863</v>
+        <v>15726.6512844391</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>113858.238059371</v>
+        <v>112937.138746159</v>
       </c>
       <c r="C31" t="n">
-        <v>95512.4776526372</v>
+        <v>94339.1543709829</v>
       </c>
       <c r="D31" t="n">
-        <v>85296.9546050051</v>
+        <v>83384.8971536053</v>
       </c>
       <c r="E31" t="n">
-        <v>132561.19622166</v>
+        <v>133071.440185162</v>
       </c>
       <c r="F31" t="n">
-        <v>141933.780831529</v>
+        <v>141507.980188446</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>7012.23805937059</v>
+        <v>6091.13874615902</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>118354.434068997</v>
+        <v>117476.154681364</v>
       </c>
       <c r="C32" t="n">
-        <v>100200.229070678</v>
+        <v>98470.2712212984</v>
       </c>
       <c r="D32" t="n">
-        <v>92405.8972015443</v>
+        <v>87714.0800044587</v>
       </c>
       <c r="E32" t="n">
-        <v>135812.825547334</v>
+        <v>137624.187207992</v>
       </c>
       <c r="F32" t="n">
-        <v>149692.930472644</v>
+        <v>147929.896496331</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>5706.43406899655</v>
+        <v>4828.15468136386</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>117737.929652209</v>
+        <v>116724.757949233</v>
       </c>
       <c r="C33" t="n">
-        <v>99987.2233681238</v>
+        <v>95544.1349963608</v>
       </c>
       <c r="D33" t="n">
-        <v>90270.5938551342</v>
+        <v>89378.8187325224</v>
       </c>
       <c r="E33" t="n">
-        <v>136400.852405078</v>
+        <v>137058.160754086</v>
       </c>
       <c r="F33" t="n">
-        <v>147684.542617497</v>
+        <v>146182.8556417</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>2362.92965220944</v>
+        <v>1349.75794923338</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>107756.076607947</v>
+        <v>106958.864050676</v>
       </c>
       <c r="C34" t="n">
-        <v>89101.1567185516</v>
+        <v>86452.7983069223</v>
       </c>
       <c r="D34" t="n">
-        <v>80503.4812676059</v>
+        <v>76951.3584597554</v>
       </c>
       <c r="E34" t="n">
-        <v>125861.147274794</v>
+        <v>127949.185025266</v>
       </c>
       <c r="F34" t="n">
-        <v>141037.900707482</v>
+        <v>138980.49063199</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>6673.07660794702</v>
+        <v>5875.86405067553</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>109872.532695084</v>
+        <v>109209.562303018</v>
       </c>
       <c r="C35" t="n">
-        <v>90586.4866938394</v>
+        <v>88158.4157537056</v>
       </c>
       <c r="D35" t="n">
-        <v>82670.5919493933</v>
+        <v>76629.1225534409</v>
       </c>
       <c r="E35" t="n">
-        <v>128913.666243467</v>
+        <v>129600.139509857</v>
       </c>
       <c r="F35" t="n">
-        <v>143049.923011596</v>
+        <v>139816.801787711</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>19857.5326950844</v>
+        <v>19194.5623030181</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>109842.965939388</v>
+        <v>109145.868036743</v>
       </c>
       <c r="C36" t="n">
-        <v>89984.0728541256</v>
+        <v>87464.5563536637</v>
       </c>
       <c r="D36" t="n">
-        <v>81551.2226422134</v>
+        <v>77875.6140065764</v>
       </c>
       <c r="E36" t="n">
-        <v>128482.01944643</v>
+        <v>131008.633962528</v>
       </c>
       <c r="F36" t="n">
-        <v>144314.499313083</v>
+        <v>139887.939229583</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>23471.9659393885</v>
+        <v>22774.8680367432</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>106869.298865731</v>
+        <v>106181.930025831</v>
       </c>
       <c r="C37" t="n">
-        <v>87733.5382534616</v>
+        <v>84758.3003094614</v>
       </c>
       <c r="D37" t="n">
-        <v>77796.7961512668</v>
+        <v>74591.8862122907</v>
       </c>
       <c r="E37" t="n">
-        <v>127100.787560981</v>
+        <v>128095.974329658</v>
       </c>
       <c r="F37" t="n">
-        <v>141131.355222311</v>
+        <v>141685.258818981</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>47371.2988657311</v>
+        <v>46683.9300258307</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>124682.036415846</v>
+        <v>123638.638956768</v>
       </c>
       <c r="C38" t="n">
-        <v>104316.053853821</v>
+        <v>101064.41578382</v>
       </c>
       <c r="D38" t="n">
-        <v>94891.0772666397</v>
+        <v>89841.3164364324</v>
       </c>
       <c r="E38" t="n">
-        <v>145238.560740731</v>
+        <v>144079.441631643</v>
       </c>
       <c r="F38" t="n">
-        <v>158870.231030571</v>
+        <v>156609.22540191</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>49892.0364158461</v>
+        <v>48848.6389567681</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>112391.981068654</v>
+        <v>111541.235081111</v>
       </c>
       <c r="C39" t="n">
-        <v>90631.224547808</v>
+        <v>90248.0048351456</v>
       </c>
       <c r="D39" t="n">
-        <v>80828.659820766</v>
+        <v>78688.4237791303</v>
       </c>
       <c r="E39" t="n">
-        <v>132614.436945682</v>
+        <v>132738.86804019</v>
       </c>
       <c r="F39" t="n">
-        <v>145151.004854928</v>
+        <v>149070.871149837</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>116063</v>
       </c>
       <c r="I39" t="n">
-        <v>-3671.01893134645</v>
+        <v>-4521.76491888947</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>129925.280059598</v>
+        <v>129374.206100912</v>
       </c>
       <c r="C40" t="n">
-        <v>106944.63433068</v>
+        <v>108124.019758031</v>
       </c>
       <c r="D40" t="n">
-        <v>97500.6931840796</v>
+        <v>99398.6692147669</v>
       </c>
       <c r="E40" t="n">
-        <v>151082.164988652</v>
+        <v>150647.808840675</v>
       </c>
       <c r="F40" t="n">
-        <v>166072.053042629</v>
+        <v>167387.22302858</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>2993.28005959792</v>
+        <v>2442.20610091233</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
